--- a/docs/PT1/PT1_26.07.24_output.xlsx
+++ b/docs/PT1/PT1_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,369 +505,439 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731005967.3452587</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731005967.639499</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005967.3452587.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005967.639499.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>298.75</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>299.35</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731005968.022474</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731005968.4014597</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005968.022474.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005968.4014597.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>296.25</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>297.84</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.589999999999975</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731005969.2821941</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731005969.6212883</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005969.2821941.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005969.6212883.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>295.68</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>296.3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.6200000000000045</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731005981.1393247</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731005981.5600243</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005981.1393247.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005981.5600243.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>134.91</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>135.33</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.4200000000000159</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731005982.0287988</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731005982.8474102</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005982.0287988.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005982.8474102.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>134.33</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.57</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.7600000000000193</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731005990.0425487</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731005990.0425487.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+          <t>./test_images/GAZP1731005990.0425487.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>134.78</v>
       </c>
-      <c r="J8" t="n">
-        <v>134.78</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="L8" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.08000000000001251</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731006003.3233418</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731006003.3233418.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+          <t>./test_images/LKOH1731006003.3233418.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6927.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6927.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -860,1666 +945,1972 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731006004.8895223</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731006005.4293113</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731006004.8895223.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731006005.4293113.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>535.9</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>536.4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731006007.8220878</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731006008.2549317</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731006007.8220878.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731006008.2549317.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>535.75</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>534.8</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.9500000000000455</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731006018.465021</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731006018.9819293</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731006018.465021.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731006018.9819293.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1093</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1093.4</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731006020.9097192</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731006021.3814569</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731006020.9097192.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731006021.3814569.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1086.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>1087</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731006031.7496364</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731006032.485303</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006031.7496364.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006032.485303.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>130.58</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>130.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.08000000000001251</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731006033.3907304</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731006033.706919</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006033.3907304.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006033.706919.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>130.02</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>130.48</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.4599999999999795</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731006034.1008325</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731006034.5472744</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006034.1008325.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006034.5472744.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>129.72</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>129.48</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.2400000000000091</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731006047.3313048</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731006047.7611537</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731006047.3313048.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731006047.7611537.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>173.6</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>173.86</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.2600000000000193</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731006048.6537695</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731006049.5902631</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731006048.6537695.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731006049.5902631.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>171.82</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>170.72</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-1.099999999999994</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731006060.360123</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731006060.467808</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006060.360123.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006060.467808.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>53.33</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>53.45</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731006060.9963927</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731006061.4920661</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006060.9963927.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006061.4920661.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>53.21</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>53.22</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731006070.3057752</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731006070.4763181</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006070.3057752.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006070.4763181.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1464.8</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1459.2</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>5.599999999999909</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731006074.4243305</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731006074.936986</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006074.4243305.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006074.936986.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1453.4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1448.6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-4.800000000000182</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731006079.9532895</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731006080.0131323</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006079.9532895.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006080.0131323.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1432.6</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1431</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731006080.4798522</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731006081.025393</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006080.4798522.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006081.025393.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1437.2</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1438.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731006082.2212214</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731006082.4894755</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006082.2212214.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006082.4894755.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1446</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1443</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731006085.107497</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731006085.168306</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006085.107497.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006085.168306.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>63.43</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>63.54</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731006085.480499</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731006085.7078633</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006085.480499.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006085.7078633.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>63.43</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>63.49</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731006087.4482048</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731006087.647677</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006087.4482048.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006087.647677.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>63.55</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>63.73</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1799999999999997</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731006101.600989</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731006102.176454</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/SELG1731006101.600989.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/SELG1731006102.176454.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>58.78</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>58.46</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.3200000000000003</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731006110.8359516</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731006111.1090775</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731006110.8359516.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731006111.1090775.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>145.2</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>145</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731006124.4829054</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731006124.756191</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731006124.4829054.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731006124.756191.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>58.34</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>58.54</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1999999999999957</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731006125.9625661</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731006126.2069175</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731006125.9625661.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731006126.2069175.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>58.31</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>58.38</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731006127.631672</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731006128.3113055</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731006127.631672.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731006128.3113055.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>58.03</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>57.24</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.7899999999999991</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-1.36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731006137.3658907</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731006137.7460127</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006137.3658907.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006137.7460127.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>383.83</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>384.49</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.660000000000025</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731006138.3217328</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731006138.7067027</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006138.3217328.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006138.7067027.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>382.68</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>382.56</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731006142.8361807</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731006143.0206597</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006142.8361807.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006143.0206597.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>382.74</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>383.22</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.4800000000000182</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731006143.3872151</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731006143.7009518</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006143.3872151.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006143.7009518.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>382</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>382.46</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.4599999999999795</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731006144.2618165</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731006144.450311</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006144.2618165.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006144.450311.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>380.39</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>381.77</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>1.379999999999995</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731006149.6130521</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731006150.6024663</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006149.6130521.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006150.6024663.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>384.56</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>383.81</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.75</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731006152.839982</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731006153.049452</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006152.839982.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006153.049452.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>0.10102</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>0.10112</v>
       </c>
-      <c r="K40" t="n">
-        <v>9.999999999998899e-05</v>
+      <c r="M40" t="n">
+        <v>0.0001000000000000029</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731006154.679441</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731006155.1047835</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006154.679441.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006155.1047835.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>0.1009</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>0.10058</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.0003200000000000008</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731006155.579548</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731006156.3161175</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006155.579548.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006156.3161175.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>0.09954</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>0.09924000000000001</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.0002999999999999947</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731006167.3793793</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731006167.801224</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MXI1731006167.3793793.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MXI1731006167.801224.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>3110.2</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>3117.95</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>7.75</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -2533,7 +2924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2557,6 +2948,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2570,6 +2976,15 @@
       <c r="C2" t="n">
         <v>6</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.351666666666669</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2583,6 +2998,15 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.8399999999999181</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2596,6 +3020,15 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.1733333333333344</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2604,11 +3037,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0005200000000000066</v>
+        <v>-0.0005199999999999927</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.0001733333333333309</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2617,11 +3059,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3400000000000034</v>
+        <v>-0.4200000000000159</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.1400000000000053</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.3200000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2635,6 +3086,15 @@
       <c r="C7" t="n">
         <v>3</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.04666666666665265</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2648,6 +3108,15 @@
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.9366666666666674</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2661,6 +3130,15 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.1166666666666671</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5399999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2674,6 +3152,15 @@
       <c r="C10" t="n">
         <v>2</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.4000000000000909</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2687,6 +3174,15 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.2250000000000227</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2700,6 +3196,15 @@
       <c r="C12" t="n">
         <v>2</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.06500000000000128</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2713,6 +3218,15 @@
       <c r="C13" t="n">
         <v>2</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.4199999999999875</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2726,6 +3240,15 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2739,6 +3262,15 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2752,6 +3284,15 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.3200000000000003</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2765,6 +3306,15 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2778,6 +3328,11 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
